--- a/Time Table June  2018.xlsx
+++ b/Time Table June  2018.xlsx
@@ -12707,6 +12707,576 @@
           <a:r>
             <a:rPr lang="th-TH" sz="1000"/>
             <a:t>ตัดเล็บ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>460465</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>414446</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="308" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="9829800"/>
+          <a:ext cx="1777636" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>สหกิจ สัมภาษณ์ บริษัท </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>maxile</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>478972</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>22560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="309" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5921829" y="5421086"/>
+          <a:ext cx="3189514" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สอบถาม</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> อาคคารระพีชั้น </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>เรื่องทุน กรอ สำหรับวิศวะ ไว้เผื่อค่าต่างๆ (เอาเสื้อนิสิต ใส่กางเกงขายาว)</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>620486</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>436218</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="310" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9252857" y="5388429"/>
+          <a:ext cx="3189514" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ขอ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>transcipt </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ใหม่</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>11675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="311" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5976257" y="5856515"/>
+          <a:ext cx="3189514" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>รับ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>transcipt </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ใหม่ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(เอาเสื้อนิสิต ใส่กางเกงขายาว)</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>593271</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>26127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>562791</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>445227</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="312" name="สี่เหลี่ยมผืนผ้า 311"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5241471" y="5381898"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>478972</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>185058</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>11675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="313" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3135086" y="5410201"/>
+          <a:ext cx="1034143" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>กางเกงขายาว พกเสื้อนิสิต</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>413658</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>119744</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>789</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="314" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3069772" y="5845629"/>
+          <a:ext cx="1034143" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>กางเกงขายาว พกเสื้อนิสิต</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>636814</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>26126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>606334</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>445226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="315" name="สี่เหลี่ยมผืนผ้า 314"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5285014" y="5828212"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -13005,8 +13575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Time Table June  2018.xlsx
+++ b/Time Table June  2018.xlsx
@@ -3649,15 +3649,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>537755</xdr:colOff>
+      <xdr:colOff>505097</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>33746</xdr:rowOff>
+      <xdr:rowOff>44632</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>513806</xdr:colOff>
+      <xdr:colOff>481148</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
+      <xdr:rowOff>21772</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3666,8 +3666,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14482355" y="926375"/>
-          <a:ext cx="640080" cy="423454"/>
+          <a:off x="14449697" y="5400403"/>
+          <a:ext cx="640080" cy="423455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4332,16 +4332,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>117566</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95794</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>18506</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>513806</xdr:colOff>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>492034</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>437606</xdr:rowOff>
+      <xdr:rowOff>426720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4350,7 +4350,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14062166" y="911135"/>
+          <a:off x="12712337" y="5363391"/>
           <a:ext cx="396240" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4446,16 +4446,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>170906</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160021</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>26126</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>568235</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>445226</xdr:rowOff>
+      <xdr:rowOff>37012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>557350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9798</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4464,7 +4464,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14115506" y="1365069"/>
+          <a:off x="12776564" y="5839098"/>
           <a:ext cx="397329" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12792,14 +12792,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>65315</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>359228</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>424543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>478972</xdr:colOff>
+      <xdr:colOff>664028</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>22560</xdr:rowOff>
     </xdr:to>
@@ -12810,8 +12810,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5921829" y="5421086"/>
-          <a:ext cx="3189514" cy="403560"/>
+          <a:off x="7663542" y="5334000"/>
+          <a:ext cx="1632857" cy="490646"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12836,7 +12836,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="th-TH">
+            <a:rPr lang="th-TH" sz="800">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -12844,7 +12844,7 @@
             <a:t>สอบถาม</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="th-TH" baseline="0">
+            <a:rPr lang="th-TH" sz="800" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -12852,7 +12852,7 @@
             <a:t> อาคคารระพีชั้น </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" baseline="0">
+            <a:rPr lang="en-US" sz="800" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -12860,14 +12860,14 @@
             <a:t>3 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="th-TH" baseline="0">
+            <a:rPr lang="th-TH" sz="800" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>เรื่องทุน กรอ สำหรับวิศวะ ไว้เผื่อค่าต่างๆ (เอาเสื้อนิสิต ใส่กางเกงขายาว)</a:t>
           </a:r>
-          <a:endParaRPr>
+          <a:endParaRPr sz="800">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -12879,16 +12879,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>620486</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>130628</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>32658</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>489857</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>436218</xdr:rowOff>
+      <xdr:rowOff>359229</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12897,8 +12897,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9252857" y="5388429"/>
-          <a:ext cx="3189514" cy="403560"/>
+          <a:off x="8098971" y="5715000"/>
+          <a:ext cx="1306286" cy="217714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12959,15 +12959,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>87085</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>11675</xdr:rowOff>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>370114</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12976,8 +12976,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5976257" y="5856515"/>
-          <a:ext cx="3189514" cy="403560"/>
+          <a:off x="6063342" y="5823857"/>
+          <a:ext cx="1284515" cy="348343"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12997,7 +12997,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="th-TH">
+            <a:rPr lang="th-TH" sz="800">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -13005,7 +13005,7 @@
             <a:t>รับ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US">
+            <a:rPr lang="en-US" sz="800">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -13013,7 +13013,7 @@
             <a:t>transcipt </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="th-TH">
+            <a:rPr lang="th-TH" sz="800">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -13021,7 +13021,7 @@
             <a:t>ใหม่ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="th-TH" sz="1100" baseline="0">
+            <a:rPr lang="th-TH" sz="800" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -13032,7 +13032,7 @@
             </a:rPr>
             <a:t>(เอาเสื้อนิสิต ใส่กางเกงขายาว)</a:t>
           </a:r>
-          <a:endParaRPr lang="th-TH">
+          <a:endParaRPr lang="th-TH" sz="800">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -13278,6 +13278,718 @@
             <a:rPr lang="th-TH" sz="1000"/>
             <a:t>เดินทาง</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>631371</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>439303</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>403441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="316" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2623457" y="5355772"/>
+          <a:ext cx="471960" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>623751</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>408211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>359228</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>315685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="317" name="สี่เหลี่ยมผืนผ้า 316"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6600008" y="5317668"/>
+          <a:ext cx="1063534" cy="353788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="800"/>
+            <a:t>หาข้อมูลไปโอซาก้า</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="800" baseline="0"/>
+            <a:t> ญี่ปุ่น ซักอย่างนึง</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>653142</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>413655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>620485</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>390795</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="318" name="สี่เหลี่ยมผืนผ้า 317"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5965371" y="5323112"/>
+          <a:ext cx="631371" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ใส่ข้อมูลความรู้</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>424542</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>546462</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>391886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="319" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11048999" y="5366657"/>
+          <a:ext cx="1449977" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>141514</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>43544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>555171</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>413658</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="320" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9437914" y="5399315"/>
+          <a:ext cx="1077686" cy="370114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>จัดการผลสหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>185057</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>391886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="321" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9481457" y="5823858"/>
+          <a:ext cx="1077686" cy="370114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>จัดการผลสหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>195942</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>317862</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="322" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7500256" y="5921829"/>
+          <a:ext cx="1449977" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>318951</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>419097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>326570</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="323" name="สี่เหลี่ยมผืนผ้า 322"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11607437" y="5774868"/>
+          <a:ext cx="1063534" cy="353788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="800"/>
+            <a:t>หาข้อมูลไปโอซาก้า</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="800" baseline="0"/>
+            <a:t> ญี่ปุ่น ซักอย่างนึง</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>424541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>315685</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>401680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="324" name="สี่เหลี่ยมผืนผ้า 323"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10972800" y="5780312"/>
+          <a:ext cx="631371" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ใส่ข้อมูลความรู้</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>435430</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>424543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="325" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13051972" y="5399314"/>
+          <a:ext cx="1328058" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>576943</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>21770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>576944</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>402770</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="326" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13193486" y="5823856"/>
+          <a:ext cx="1328058" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -13576,7 +14288,7 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Time Table June  2018.xlsx
+++ b/Time Table June  2018.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Time</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>June - July</t>
+  </si>
+  <si>
+    <t>ถ้าอาจารย์จะเยี่ยม แจ้งล่วงหน้าด้วย 1 สัปดาห์</t>
+  </si>
+  <si>
+    <t>สัปดาห์หน้าต้องค่อยๆ ทยอยถ่ายรูป ตอนฝึกงาน สหกิจด้วย       บอกอาจารย์ให้บอกล่วงหน้าก่อนถ้าจะมาเยี่ยมด้วย     และเตือนเราตอนเปิดเทอม 1 ให้จ่ายค่าเทอมด้วย</t>
+  </si>
+  <si>
+    <t>ลาป่วยต้องมีใบรับรองแพทย์ ไม่ต้องแจ้งล่วงหน้า แสดงอาการก็พอ    ลากิจ ต้องแจ้งล่วงหน้าก่อน</t>
   </si>
 </sst>
 </file>
@@ -3592,15 +3601,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>403859</xdr:rowOff>
+      <xdr:colOff>370114</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>129539</xdr:colOff>
+      <xdr:colOff>347254</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>380999</xdr:rowOff>
+      <xdr:rowOff>446313</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3609,7 +3618,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14096999" y="2189116"/>
+          <a:off x="14314714" y="6717573"/>
           <a:ext cx="641169" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4047,16 +4056,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>435428</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>380999</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
+      <xdr:rowOff>402771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>204651</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>353785</xdr:rowOff>
+      <xdr:rowOff>375557</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4065,7 +4074,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15044057" y="2166256"/>
+          <a:off x="15501257" y="6651171"/>
           <a:ext cx="640080" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4161,14 +4170,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>272143</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>424542</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>18506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>287382</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>439782</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>437606</xdr:rowOff>
     </xdr:to>
@@ -4179,7 +4188,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14216743" y="3589020"/>
+          <a:off x="15033171" y="8052163"/>
           <a:ext cx="679268" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4560,16 +4569,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>87086</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>511629</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>18506</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>483326</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>437606</xdr:rowOff>
+      <xdr:rowOff>40277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>13063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4578,7 +4587,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14031686" y="1803763"/>
+          <a:off x="12464143" y="6288677"/>
           <a:ext cx="396240" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4675,15 +4684,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>60959</xdr:colOff>
+      <xdr:colOff>322216</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>380999</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>488768</xdr:colOff>
+      <xdr:rowOff>391884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>85997</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>353785</xdr:rowOff>
+      <xdr:rowOff>364670</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4692,7 +4701,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14669588" y="2166256"/>
+          <a:off x="14930845" y="6640284"/>
           <a:ext cx="427809" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4731,16 +4740,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>460466</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>404948</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>193766</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>14151</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>382088</xdr:rowOff>
+      <xdr:rowOff>34833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4749,7 +4758,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13741037" y="2636519"/>
+          <a:off x="12630694" y="7175862"/>
           <a:ext cx="397329" cy="423455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4959,73 +4968,73 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>234043</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38098</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>631372</xdr:colOff>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>435427</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="177" name="สี่เหลี่ยมผืนผ้า 176"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12654641" y="8077200"/>
+          <a:ext cx="397329" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าวแ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>429986</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="177" name="สี่เหลี่ยมผืนผ้า 176"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13514614" y="3581400"/>
-          <a:ext cx="397329" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าวแ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>576943</xdr:colOff>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>416923</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>340723</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>429986</xdr:rowOff>
+      <xdr:rowOff>440871</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5034,7 +5043,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13857514" y="3581400"/>
+          <a:off x="14597743" y="8055428"/>
           <a:ext cx="427809" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6134,15 +6143,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>537755</xdr:colOff>
+      <xdr:colOff>69669</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>33746</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>513806</xdr:colOff>
+      <xdr:colOff>45720</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6151,8 +6160,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14482355" y="926375"/>
-          <a:ext cx="640080" cy="423454"/>
+          <a:off x="14014269" y="9841774"/>
+          <a:ext cx="640080" cy="423455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6304,16 +6313,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>186146</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>439782</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>163285</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>578031</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>412568</xdr:rowOff>
+      <xdr:rowOff>47897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>555171</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>20682</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6322,8 +6331,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14130746" y="2671353"/>
-          <a:ext cx="641168" cy="419101"/>
+          <a:off x="13194574" y="11652068"/>
+          <a:ext cx="641168" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6476,15 +6485,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>529045</xdr:colOff>
+      <xdr:colOff>180703</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>444136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>195944</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>8708</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>544286</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>432162</xdr:rowOff>
+      <xdr:rowOff>421276</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6493,7 +6502,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15137674" y="2686594"/>
+          <a:off x="14789332" y="11601993"/>
           <a:ext cx="679269" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6817,16 +6826,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>117566</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>455023</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>18506</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>513806</xdr:colOff>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>187235</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>437606</xdr:rowOff>
+      <xdr:rowOff>426720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6835,7 +6844,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14062166" y="911135"/>
+          <a:off x="11743509" y="9826534"/>
           <a:ext cx="396240" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7216,73 +7225,73 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>460466</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>101237</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>13062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>498566</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>436516</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="215" name="สี่เหลี่ยมผืนผ้า 214"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12717780" y="11617233"/>
+          <a:ext cx="397329" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าวแ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>469175</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>404948</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>193766</xdr:colOff>
+      <xdr:rowOff>433251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>232954</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>382088</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="215" name="สี่เหลี่ยมผืนผ้า 214"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13741037" y="2636519"/>
-          <a:ext cx="397329" cy="423455"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าวแ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>131717</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>389708</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>559525</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>366848</xdr:rowOff>
+      <xdr:rowOff>410391</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7291,8 +7300,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14740346" y="2621279"/>
-          <a:ext cx="427808" cy="423455"/>
+          <a:off x="14413775" y="11591108"/>
+          <a:ext cx="427808" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7688,16 +7697,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>128451</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>74023</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>31569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>105592</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>8709</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>51163</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>8710</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7706,8 +7715,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16065137" y="2709455"/>
-          <a:ext cx="641169" cy="423454"/>
+          <a:off x="16674737" y="14313626"/>
+          <a:ext cx="641169" cy="423455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12716,25 +12725,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>10886</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
+      <xdr:colOff>359228</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>424543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>460465</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>414446</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="308" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7315200" y="9829800"/>
-          <a:ext cx="1777636" cy="403560"/>
+      <xdr:colOff>664028</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>22560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="309" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7663542" y="5334000"/>
+          <a:ext cx="1632857" cy="490646"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12759,14 +12768,519 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="th-TH" sz="1100">
+            <a:rPr lang="th-TH" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สอบถาม</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> อาคคารระพีชั้น </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>เรื่องทุน กรอ สำหรับวิศวะ ไว้เผื่อค่าต่างๆ (เอาเสื้อนิสิต ใส่กางเกงขายาว)</a:t>
+          </a:r>
+          <a:endParaRPr sz="800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>593271</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>26127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>562791</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>445227</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="312" name="สี่เหลี่ยมผืนผ้า 311"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5241471" y="5381898"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>478972</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>185058</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>11675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="313" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3135086" y="5410201"/>
+          <a:ext cx="1034143" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>กางเกงขายาว พกเสื้อนิสิต</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>413658</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>119744</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>789</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="314" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3069772" y="5845629"/>
+          <a:ext cx="1034143" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>กางเกงขายาว พกเสื้อนิสิต</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>636814</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>26126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>606334</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>445226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="315" name="สี่เหลี่ยมผืนผ้า 314"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5285014" y="5828212"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>631371</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>439303</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>403441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="316" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2623457" y="5355772"/>
+          <a:ext cx="471960" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>สหกิจ สัมภาษณ์ บริษัท </a:t>
-          </a:r>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>623751</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>408211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>359228</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>315685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="317" name="สี่เหลี่ยมผืนผ้า 316"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6600008" y="5317668"/>
+          <a:ext cx="1063534" cy="353788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="800"/>
+            <a:t>หาข้อมูลไปโอซาก้า</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="800" baseline="0"/>
+            <a:t> ญี่ปุ่น ซักอย่างนึง</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>653142</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>413655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>620485</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>390795</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="318" name="สี่เหลี่ยมผืนผ้า 317"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5965371" y="5323112"/>
+          <a:ext cx="631371" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ใส่ข้อมูลความรู้</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>424542</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>546462</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>391886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="319" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11048999" y="5366657"/>
+          <a:ext cx="1449977" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -12774,7 +13288,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>maxile</a:t>
+            <a:t>relax</a:t>
           </a:r>
           <a:endParaRPr/>
         </a:p>
@@ -12792,26 +13306,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>359228</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>424543</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>664028</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>22560</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="309" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7663542" y="5334000"/>
-          <a:ext cx="1632857" cy="490646"/>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>141514</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>43544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>555171</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>413658</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="320" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9437914" y="5399315"/>
+          <a:ext cx="1077686" cy="370114"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12836,38 +13350,14 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="th-TH" sz="800">
+            <a:rPr lang="th-TH">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>สอบถาม</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> อาคคารระพีชั้น </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>3 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>เรื่องทุน กรอ สำหรับวิศวะ ไว้เผื่อค่าต่างๆ (เอาเสื้อนิสิต ใส่กางเกงขายาว)</a:t>
-          </a:r>
-          <a:endParaRPr sz="800">
+            <a:t>จัดการผลสหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -12879,26 +13369,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>130628</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>359229</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
+      <xdr:colOff>185057</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>130628</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="310" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8098971" y="5715000"/>
-          <a:ext cx="1306286" cy="217714"/>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>391886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="321" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9481457" y="5823858"/>
+          <a:ext cx="1077686" cy="370114"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12928,23 +13418,401 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ขอ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US">
+            <a:t>จัดการผลสหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>217713</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>339633</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>424543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="322" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7522027" y="5845629"/>
+          <a:ext cx="1449977" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
+              <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>transcipt </a:t>
-          </a:r>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>318951</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>419097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>326570</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="323" name="สี่เหลี่ยมผืนผ้า 322"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11607437" y="5774868"/>
+          <a:ext cx="1063534" cy="353788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="800"/>
+            <a:t>หาข้อมูลไปโอซาก้า</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="800" baseline="0"/>
+            <a:t> ญี่ปุ่น ซักอย่างนึง</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>424541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>315685</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>401680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="324" name="สี่เหลี่ยมผืนผ้า 323"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10972800" y="5780312"/>
+          <a:ext cx="631371" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ใส่ข้อมูลความรู้</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>435430</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>424543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="325" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13051972" y="5399314"/>
+          <a:ext cx="1328058" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>576943</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>21770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>576944</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>402770</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="326" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13193486" y="5823856"/>
+          <a:ext cx="1328058" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>239486</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>413657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>370903</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="327" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16176172" y="5323114"/>
+          <a:ext cx="1034143" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr lang="th-TH">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ใหม่</a:t>
+            <a:t>เอารูปนิสิตใส่กระเป๋าสะพาย</a:t>
           </a:r>
           <a:endParaRPr>
             <a:solidFill>
@@ -12956,28 +13824,213 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>16328</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>649877</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>20683</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="328" name="สี่เหลี่ยมผืนผ้า 327"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5328557" y="6296297"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>87085</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>21771</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>43543</xdr:colOff>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>406646</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>370114</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="311" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6063342" y="5823857"/>
-          <a:ext cx="1284515" cy="348343"/>
+      <xdr:rowOff>436097</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="329" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2590800" y="5834743"/>
+          <a:ext cx="471960" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>32655</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>315686</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>381002</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="330" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6672941" y="6248402"/>
+          <a:ext cx="1611088" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>337456</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>435429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="331" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9655629" y="6313715"/>
+          <a:ext cx="1306284" cy="370114"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12996,47 +14049,23 @@
         <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="th-TH" sz="800">
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>รับ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>transcipt </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ใหม่ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(เอาเสื้อนิสิต ใส่กางเกงขายาว)</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="800">
+            <a:t>ส่งผลสหกิจ ทางไหน โทรถามบริษัท</a:t>
+          </a:r>
+          <a:endParaRPr>
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
-            <a:effectLst/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -13045,56 +14074,66 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>593271</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>26127</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>562791</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>445227</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="312" name="สี่เหลี่ยมผืนผ้า 311"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5241471" y="5381898"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>242751</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>642257</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>391885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="333" name="สี่เหลี่ยมผืนผ้า 332"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11531237" y="7179126"/>
+          <a:ext cx="1063534" cy="353788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="800"/>
+            <a:t>หาข้อมูลไปโอซาก้า</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="800" baseline="0"/>
+            <a:t> ญี่ปุ่น ซักอย่างนึง</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -13102,25 +14141,150 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>402772</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>402773</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>435427</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="334" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13019315" y="6302827"/>
+          <a:ext cx="1328058" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>634637</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>437604</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>367937</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>414745</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="335" name="สี่เหลี่ยมผืนผ้า 334"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12587151" y="6686004"/>
+          <a:ext cx="397329" cy="423455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าวแ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>478972</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>54430</xdr:rowOff>
+      <xdr:colOff>446315</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>185058</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>11675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="313" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3135086" y="5410201"/>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>414447</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="336" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3102429" y="6259287"/>
           <a:ext cx="1034143" cy="403560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13165,25 +14329,85 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>620486</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>413658</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>43543</xdr:rowOff>
+      <xdr:colOff>428418</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>414326</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="337" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2612572" y="6259286"/>
+          <a:ext cx="471960" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>511629</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>391887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>119744</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>789</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="314" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3069772" y="5845629"/>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>349133</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="339" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3167743" y="6640287"/>
           <a:ext cx="1034143" cy="403560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13229,24 +14453,1208 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>636814</xdr:colOff>
+      <xdr:colOff>478971</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>649877</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>20682</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="340" name="สี่เหลี่ยมผืนผ้า 339"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5127171" y="6742611"/>
+          <a:ext cx="834935" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกเก้าโมง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>65316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>130628</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="341" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8784770" y="6760030"/>
+          <a:ext cx="1970315" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>97972</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>438693</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="344" name="สี่เหลี่ยมผืนผ้า 343"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11005457" y="7598229"/>
+          <a:ext cx="1709058" cy="427807"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="900"/>
+            <a:t>ยัดข้อมูลสำคัญ สำหรับโอซาก้า ใส่ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900"/>
+            <a:t>iBooks </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="900"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900"/>
+            <a:t>Nipponbashi)</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>402771</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>10884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>402772</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>391884</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="345" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16339457" y="6705598"/>
+          <a:ext cx="1328058" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>348343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>21772</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="347" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6030685" y="6596743"/>
+          <a:ext cx="2623458" cy="566057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ส่งหนังสือตอบรับให้บริษัท</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Debuz</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ถ้าเดินทาสะดวก ก็เอา ถ้าเดินทางลำบาก เปลี่ยนใจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>435426</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>26126</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:rowOff>348342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>402770</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="348" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8403769" y="6150428"/>
+          <a:ext cx="1295401" cy="566057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>จัดการผลสหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ถามเรื่องบัตตรนิสิตด้วย</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>141514</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>119740</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="310" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7445828" y="7217229"/>
+          <a:ext cx="1306283" cy="370114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ทำบัตรนิสิตใหม่</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>119743</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>21774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>576945</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>425334</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="338" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="6716488"/>
+          <a:ext cx="1785259" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ชุดนิสิตเรียบร้อย</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>เสื้อในกางเกง</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>พร้อมเข็มกลัดนิสิต</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>549728</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>26124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>519248</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>445224</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="346" name="สี่เหลี่ยมผืนผ้า 345"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6525985" y="7167153"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>402772</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>413658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>370903</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="349" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3058886" y="7108372"/>
+          <a:ext cx="1034143" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>กางเกงขายาว พกเสื้อนิสิต</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438694</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>27209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>174171</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>373377</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="351" name="สี่เหลี่ยมผืนผ้า 350"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5086894" y="7168238"/>
+          <a:ext cx="1063534" cy="346168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="800"/>
+            <a:t>เตรียมเอกสารเรื่องทุน</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609597</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>32659</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>413659</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="350" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8577940" y="7173688"/>
+          <a:ext cx="2481945" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>598715</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>446312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>435430</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>423451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="352" name="สี่เหลี่ยมผืนผ้า 351"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11223172" y="12050483"/>
+          <a:ext cx="1164772" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ใส่ข้อมูล</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> Law of existence</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>435427</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>10884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>272142</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>434338</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="355" name="สี่เหลี่ยมผืนผ้า 354"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10395856" y="7151913"/>
+          <a:ext cx="1164772" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ใส่ข้อมูล</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> Law of existence</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>538842</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>439782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>508362</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>412568</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="356" name="สี่เหลี่ยมผืนผ้า 355"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515099" y="8027125"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>288471</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4354</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>257991</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>423454</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="357" name="สี่เหลี่ยมผืนผ้า 356"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13569042" y="8038011"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="358" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6651171" y="11212286"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ปฐมนิเทศ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Debuz</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>606334</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>445226</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="315" name="สี่เหลี่ยมผืนผ้า 314"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5285014" y="5828212"/>
+      <xdr:colOff>223156</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>192677</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>434341</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="360" name="สี่เหลี่ยมผืนผ้า 359"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5535385" y="9834155"/>
           <a:ext cx="633549" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13283,27 +15691,234 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>16327</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>439782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>649876</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>412568</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="361" name="สี่เหลี่ยมผืนผ้า 360"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5328556" y="11151325"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>631371</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>21773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>413654</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>391887</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="332" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6411685" y="9840687"/>
+          <a:ext cx="1306283" cy="370114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>รับ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>transcript</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ใหม่</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>439303</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>403441</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="316" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2623457" y="5355772"/>
+      <xdr:colOff>402772</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>43544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>789</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="342" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3058886" y="9862458"/>
+          <a:ext cx="1034143" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>กางเกงขายาว พกเสื้อนิสิต</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>500743</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>308674</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>403440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="343" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3156857" y="8033657"/>
           <a:ext cx="471960" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13343,28 +15958,131 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>623751</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>408211</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>359228</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>315685</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="317" name="สี่เหลี่ยมผืนผ้า 316"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6600008" y="5317668"/>
-          <a:ext cx="1063534" cy="353788"/>
+      <xdr:colOff>206828</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>576943</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>435428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="362" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6183085" y="7630886"/>
+          <a:ext cx="2362201" cy="391885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ศึกษา </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Slim Framework</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ด้วย </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>To do Project </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>หรือ ซักอย่าง</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>283030</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>21772</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="363" name="สี่เหลี่ยมผืนผ้า 362"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10907487" y="8055428"/>
+          <a:ext cx="1730828" cy="427807"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13397,14 +16115,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="th-TH" sz="800"/>
-            <a:t>หาข้อมูลไปโอซาก้า</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="800" baseline="0"/>
-            <a:t> ญี่ปุ่น ซักอย่างนึง</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="800"/>
+            <a:rPr lang="th-TH" sz="900"/>
+            <a:t>ยัดข้อมูลสำคัญ สำหรับโอซาก้า ใส่ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900"/>
+            <a:t>iBooks (Dodonbori)</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -13413,25 +16131,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>653142</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>413655</xdr:rowOff>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>435426</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>620485</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>390795</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="318" name="สี่เหลี่ยมผืนผ้า 317"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5965371" y="5323112"/>
-          <a:ext cx="631371" cy="423454"/>
+      <xdr:colOff>511630</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>412566</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="308" name="สี่เหลี่ยมผืนผ้า 307"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5323115" y="8022769"/>
+          <a:ext cx="1164772" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13463,8 +16181,13 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ใส่ข้อมูลความรู้</a:t>
-          </a:r>
+            <a:t>ซื้อกระเป๋าตังค์ใหม่</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> หรือซ่อมใหม่</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -13472,26 +16195,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>424542</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>546462</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>391886</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="319" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11048999" y="5366657"/>
-          <a:ext cx="1449977" cy="381000"/>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>195941</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>32660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>413660</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="311" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7500255" y="8066317"/>
+          <a:ext cx="2481945" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13540,26 +16263,456 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>598713</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>4</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>141514</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>43544</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>555171</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>413658</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="320" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9437914" y="5399315"/>
-          <a:ext cx="1077686" cy="370114"/>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>381004</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="353" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7903027" y="9818918"/>
+          <a:ext cx="1611088" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>424543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>580817</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>381668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="354" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="10243457"/>
+          <a:ext cx="471960" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>413657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635246</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>370783</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="359" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3483429" y="11125200"/>
+          <a:ext cx="471960" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>185057</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657017</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>403441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="364" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3505200" y="11604172"/>
+          <a:ext cx="471960" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>538842</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>15241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508362</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>434341</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="365" name="สี่เหลี่ยมผืนผ้า 364"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5187042" y="10280470"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>70756</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>439784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>40277</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>412570</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="366" name="สี่เหลี่ยมผืนผ้า 365"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5382985" y="10705013"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>587827</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>54431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>413658</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>435431</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="367" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6564084" y="10319660"/>
+          <a:ext cx="2481945" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>500742</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>337459</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>979714</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>283030</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="368" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17101456" y="11495316"/>
+          <a:ext cx="2133601" cy="391885"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13589,7 +16742,47 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>จัดการผลสหกิจ</a:t>
+            <a:t>ศึกษา </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Slim Framework</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ด้วย </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>To do Project </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>หรือ ซักอย่าง</a:t>
           </a:r>
           <a:endParaRPr>
             <a:solidFill>
@@ -13601,28 +16794,649 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>555171</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>587829</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>14149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="370" name="สี่เหลี่ยมผืนผ้า 369"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9851571" y="9851571"/>
+          <a:ext cx="2024744" cy="427807"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="900"/>
+            <a:t>เปลี่ยนฟิล์มโทรศัพท์ใหม่</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="900" baseline="0"/>
+            <a:t> มันต้องดูดีขึ้น เพื่อ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" baseline="0"/>
+            <a:t>first impression </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="900" baseline="0"/>
+            <a:t>ตอนสหกิจ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>293913</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>21776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>576944</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>402776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="371" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12246427" y="9840690"/>
+          <a:ext cx="1611088" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>566056</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>32660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>391887</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>413660</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="372" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6542313" y="10744203"/>
+          <a:ext cx="2481945" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>14</xdr:col>
+      <xdr:colOff>620486</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>438693</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="369" name="สี่เหลี่ยมผืนผ้า 368"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8937170" y="9829800"/>
+          <a:ext cx="979716" cy="427807"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="900"/>
+            <a:t>ซื้อหูฟังใหม่</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="900"/>
+            <a:t>ที่</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900"/>
+            <a:t> Zeer Rangsit</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>174171</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>646131</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>11554</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="373" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3494314" y="10765971"/>
+          <a:ext cx="471960" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>478971</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>424543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>185057</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>381789</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="374" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2471057" y="11136086"/>
+          <a:ext cx="1034143" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>กางเกงขายาว พกเสื้อนิสิต</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>500742</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>413657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>206828</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>370903</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="375" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2492828" y="11571514"/>
+          <a:ext cx="1034143" cy="403560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>กางเกงขายาว </a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>370113</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>43545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>293916</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>359229</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="376" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9666513" y="10755088"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> keen</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> episode</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>402771</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>65317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>326574</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>381001</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="377" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11027228" y="10776860"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>metroid</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>21772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>391886</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="321" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9481457" y="5823858"/>
-          <a:ext cx="1077686" cy="370114"/>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>424544</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="378" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6662057" y="11625943"/>
+          <a:ext cx="6008915" cy="402772"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13652,7 +17466,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>จัดการผลสหกิจ</a:t>
+            <a:t>สหกิจ</a:t>
           </a:r>
           <a:endParaRPr>
             <a:solidFill>
@@ -13664,34 +17478,148 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>92527</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4354</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>62048</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>423454</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="379" name="สี่เหลี่ยมผืนผ้า 378"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5404756" y="11608525"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>59870</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>26124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>29391</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>445224</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="380" name="สี่เหลี่ยมผืนผ้า 379"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5372099" y="12076610"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>195942</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>119743</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>317862</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="322" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7500256" y="5921829"/>
-          <a:ext cx="1449977" cy="381000"/>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>43544</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>435429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="381" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6683830" y="12083143"/>
+          <a:ext cx="4321628" cy="402772"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00B050"/>
+          <a:srgbClr val="E46C0A"/>
         </a:solidFill>
         <a:ln w="25560">
           <a:solidFill>
@@ -13710,183 +17638,77 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="th-TH">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>relax</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>318951</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>419097</xdr:rowOff>
+            <a:t>ไปเล่นเกมส์ของ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>debuz </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ผ่านมือถือ ที่มหาลัย</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>185058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>326570</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="323" name="สี่เหลี่ยมผืนผ้า 322"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11607437" y="5774868"/>
-          <a:ext cx="1063534" cy="353788"/>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>424544</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="382" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8316686" y="11789229"/>
+          <a:ext cx="4463142" cy="239486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="800"/>
-            <a:t>หาข้อมูลไปโอซาก้า</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="800" baseline="0"/>
-            <a:t> ญี่ปุ่น ซักอย่างนึง</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>424541</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>315685</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>401680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="324" name="สี่เหลี่ยมผืนผ้า 323"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10972800" y="5780312"/>
-          <a:ext cx="631371" cy="423454"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ใส่ข้อมูลความรู้</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>435429</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>43543</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>435430</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>424543</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="325" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13051972" y="5399314"/>
-          <a:ext cx="1328058" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="25560">
           <a:solidFill>
@@ -13905,23 +17727,42 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="th-TH">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>relax</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
+            <a:t>ท่</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>debuz, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ศึกษาที่ฝากน็ตบุ๊ค ว่าปลอดภัยแค่ไหน จะได้มั่นใจว่าฝากได้</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -13929,32 +17770,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>576943</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>21770</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>576944</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>402770</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="326" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13193486" y="5823856"/>
-          <a:ext cx="1328058" cy="381000"/>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>370115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>261257</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="383" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4474028" y="11527972"/>
+          <a:ext cx="1099458" cy="555172"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00B050"/>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="25560">
           <a:solidFill>
@@ -13973,15 +17817,77 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>เอาปลากระป๋องแห้งไปทานมื้อเทียงด้วย</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>130628</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>141514</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>436098</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="384" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3450771" y="14314715"/>
+          <a:ext cx="674914" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>relax</a:t>
-          </a:r>
-          <a:endParaRPr/>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr>
@@ -13989,7 +17895,722 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ฝาก</a:t>
+          </a:r>
           <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>555173</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>402772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>32658</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>359898</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="385" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3211287" y="16023772"/>
+          <a:ext cx="805542" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เอากลับมา</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>403441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="386" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="14728372"/>
+          <a:ext cx="674914" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ฝาก</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>642257</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>413658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>653142</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>370783</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="387" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3298371" y="15142029"/>
+          <a:ext cx="674914" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ฝาก</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>402772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>359898</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="388" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3341914" y="15577458"/>
+          <a:ext cx="674914" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ฝาก</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>43544</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>413658</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="389" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6651172" y="14292943"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>642258</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>10887</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>424544</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="390" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6618515" y="14750143"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>413658</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="391" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6683829" y="15185572"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>402773</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="392" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6683829" y="15621001"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>32659</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>435431</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="393" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6683829" y="16099973"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>54430</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>391887</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>424544</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="394" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6694716" y="12518572"/>
+          <a:ext cx="4321628" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ไปเล่นเกมส์ของ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>debuz </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ผ่านมือถือ ที่มหาลัย</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14285,10 +18906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y1000"/>
+  <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14835,7 +19456,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -14864,7 +19485,7 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
     </row>
-    <row r="18" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -14893,7 +19514,7 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
     </row>
-    <row r="19" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -14922,8 +19543,8 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
     </row>
-    <row r="20" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43252</v>
       </c>
@@ -14954,7 +19575,7 @@
       <c r="X21" s="9"/>
       <c r="Y21" s="10"/>
     </row>
-    <row r="22" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
@@ -15031,7 +19652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
@@ -15060,7 +19681,7 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
     </row>
-    <row r="24" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>19</v>
       </c>
@@ -15089,7 +19710,7 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
     </row>
-    <row r="25" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
@@ -15118,7 +19739,7 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
     </row>
-    <row r="26" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>21</v>
       </c>
@@ -15147,7 +19768,7 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
@@ -15176,7 +19797,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>23</v>
       </c>
@@ -15205,7 +19826,7 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
@@ -15233,9 +19854,16 @@
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
+      <c r="AA29" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="30" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43252</v>
       </c>
@@ -15266,7 +19894,7 @@
       <c r="X31" s="9"/>
       <c r="Y31" s="10"/>
     </row>
-    <row r="32" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
@@ -15546,7 +20174,11 @@
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
     </row>
-    <row r="40" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L40" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="41" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>38</v>

--- a/Time Table June  2018.xlsx
+++ b/Time Table June  2018.xlsx
@@ -6484,16 +6484,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>180703</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>444136</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>30479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>195944</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>421276</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>7618</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6502,7 +6502,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14789332" y="11601993"/>
+          <a:off x="16117389" y="11634650"/>
           <a:ext cx="679269" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7282,16 +7282,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>469175</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>447405</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>433251</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>232954</xdr:colOff>
+      <xdr:rowOff>444136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>211184</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>410391</xdr:rowOff>
+      <xdr:rowOff>421276</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7300,7 +7300,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14413775" y="11591108"/>
+          <a:off x="15720062" y="11601993"/>
           <a:ext cx="427808" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18604,13 +18604,86 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ผ่านมือถือ ที่มหาลัย</a:t>
+            <a:t>ที่บ้าน</a:t>
           </a:r>
           <a:endParaRPr>
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>468088</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>391885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>587829</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="395" name="สี่เหลี่ยมผืนผ้า 394"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13748659" y="11549742"/>
+          <a:ext cx="2111827" cy="533401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="900"/>
+            <a:t>ศึกษารายจ่ายทั้งหมดของ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900"/>
+            <a:t>Osaka</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="900"/>
+            <a:t>บอกแม่ด้วยว่า จะรีบจ่ายค่าโรงแรม กับค่าเครื่องบิน ก่อนที่มันจะแพงกว่านี้</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -18908,8 +18981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Time Table June  2018.xlsx
+++ b/Time Table June  2018.xlsx
@@ -18065,7 +18065,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>642257</xdr:colOff>
+      <xdr:colOff>370115</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>413658</xdr:rowOff>
     </xdr:from>
@@ -18082,8 +18082,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3298371" y="15142029"/>
-          <a:ext cx="674914" cy="403440"/>
+          <a:off x="3026229" y="15142029"/>
+          <a:ext cx="947056" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18110,7 +18110,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1000">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
@@ -18118,21 +18118,24 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000">
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ฝาก</a:t>
-          </a:r>
-          <a:endParaRPr/>
+            <a:t>เอากลับมา</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -18684,6 +18687,371 @@
             <a:rPr lang="th-TH" sz="900"/>
             <a:t>บอกแม่ด้วยว่า จะรีบจ่ายค่าโรงแรม กับค่าเครื่องบิน ก่อนที่มันจะแพงกว่านี้</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>315685</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>32659</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>239488</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>348343</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="396" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16252371" y="15207345"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>erect dom</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>21774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>402774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="397" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8958942" y="16535403"/>
+          <a:ext cx="2481945" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>32660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>130629</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>413660</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="398" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8937170" y="16992603"/>
+          <a:ext cx="2481945" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>293913</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>402772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>65314</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>65316</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="399" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4942113" y="15577458"/>
+          <a:ext cx="1099458" cy="555172"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>เอาปลากระป๋องแห้งไปทานมื้อเทียงด้วย</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>21773</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>435428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="400" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7990116" y="15773401"/>
+          <a:ext cx="3831770" cy="283027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ถ่ายภาพ ทำ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Report </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>รายงานผลสหกิจ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ถามพี่เลี้ยง อันนี้</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -18981,8 +19349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Time Table June  2018.xlsx
+++ b/Time Table June  2018.xlsx
@@ -15321,16 +15321,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>598715</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>446312</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>435430</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>423451</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>642256</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9794</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15339,8 +15339,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11223172" y="12050483"/>
-          <a:ext cx="1164772" cy="423454"/>
+          <a:off x="6281057" y="16984977"/>
+          <a:ext cx="1665513" cy="431074"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15378,7 +15378,13 @@
             <a:rPr lang="en-US" sz="1000"/>
             <a:t> Law of existence</a:t>
           </a:r>
-          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เอาจริงละ</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -18622,13 +18628,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>468088</xdr:colOff>
+      <xdr:colOff>402774</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>391885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>587829</xdr:colOff>
+      <xdr:colOff>522515</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>32657</xdr:rowOff>
     </xdr:to>
@@ -18639,7 +18645,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13748659" y="11549742"/>
+          <a:off x="13683345" y="11549742"/>
           <a:ext cx="2111827" cy="533401"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18762,25 +18768,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>326571</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>21774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>402774</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="397" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8958942" y="16535403"/>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>544285</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>32660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>370116</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>413660</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="398" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8512628" y="16992603"/>
           <a:ext cx="2481945" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18830,25 +18836,786 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>293913</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>402772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>65314</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>65316</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="399" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4942113" y="15577458"/>
+          <a:ext cx="1099458" cy="555172"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>เอาปลากระป๋องแห้งไปทานมื้อเทียงด้วย</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>21773</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>435428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="400" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7990116" y="15773401"/>
+          <a:ext cx="3831770" cy="283027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ถ่ายภาพ ทำ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Report </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>รายงานผลสหกิจ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ถามพี่เลี้ยง อันนี้</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>32658</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>413659</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="401" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6640286" y="18756087"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>21773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>424545</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="402" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6662057" y="19213287"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>413658</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="403" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6662057" y="19648715"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>65315</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>413659</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="404" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6672943" y="20095030"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>10888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>413660</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="405" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6651171" y="20541345"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>555172</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>570412</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>419099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="408" name="สี่เหลี่ยมผืนผ้า 407"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11843658" y="16513628"/>
+          <a:ext cx="679268" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>576944</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>435428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>592183</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>408214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="409" name="สี่เหลี่ยมผืนผ้า 408"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11201401" y="18734314"/>
+          <a:ext cx="679268" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>598716</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>613955</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>429986</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="410" name="สี่เหลี่ยมผืนผ้า 409"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11223173" y="19648715"/>
+          <a:ext cx="679268" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>620488</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>635727</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>5444</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="411" name="สี่เหลี่ยมผืนผ้า 410"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11244945" y="20563115"/>
+          <a:ext cx="679268" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>631373</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>646612</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>440872</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="412" name="สี่เหลี่ยมผืนผ้า 411"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11255830" y="21444858"/>
+          <a:ext cx="679268" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>250371</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>21774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>32660</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>130629</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>413660</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="398" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8937170" y="16992603"/>
+      <xdr:colOff>76202</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>402774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="413" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6226628" y="16535403"/>
           <a:ext cx="2481945" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18880,7 +19647,34 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>relax</a:t>
+            <a:t>relax </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ไปชมรม</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เล่นอสุราต่อ</a:t>
           </a:r>
           <a:endParaRPr/>
         </a:p>
@@ -18898,35 +19692,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>293913</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>402772</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>65314</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>65316</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="399" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4942113" y="15577458"/>
-          <a:ext cx="1099458" cy="555172"/>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>43546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>544287</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>424546</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="414" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8686799" y="16557175"/>
+          <a:ext cx="2481945" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
         <a:ln w="25560">
           <a:solidFill>
@@ -18939,24 +19730,151 @@
         <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
         <a:lstStyle/>
         <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ที่ชมรม ขอข้อมูลค่าใช้จ่าย การใช้ชีวิต เที่ยวญี่ปุ่น</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:pPr>
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="th-TH">
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>576943</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>446313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>592183</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>419099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="415" name="สี่เหลี่ยมผืนผ้า 414"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11865429" y="16959942"/>
+          <a:ext cx="679268" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>751117</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>391886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="416" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16764000" y="16143516"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
+              <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>เอาปลากระป๋องแห้งไปทานมื้อเทียงด้วย</a:t>
-          </a:r>
-          <a:endParaRPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
+            <a:t>erect sub</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -18964,25 +19882,161 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>21773</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>435428</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="400" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7990116" y="15773401"/>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>337457</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>65316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>925288</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="417" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16938171" y="16578945"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>erect sub</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>108859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>892631</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>424543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="418" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16905514" y="17068802"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>erect dom</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>566059</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>413658</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="419" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7206345" y="18919372"/>
           <a:ext cx="3831770" cy="283027"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19052,6 +20106,749 @@
               <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>315687</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>261257</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="420" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12932230" y="17569542"/>
+          <a:ext cx="4593770" cy="424543"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>วันหยุด</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> ห้าม</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>!!! </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ทำงานถ้าไม่จำเป็นจริงๆ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ไม่งั้นมันจะเครียดจนยิ่งทำงานไม่ได้</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>กันไว้ดีกว่าแก้ กันโง่ไว้</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>315686</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>10889</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>141517</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>391889</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="421" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6291943" y="20987660"/>
+          <a:ext cx="2481945" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ไปชมรม</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เล่นอสุราต่อ</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>174171</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>391889</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>326575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="422" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8806542" y="20922346"/>
+          <a:ext cx="2481945" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ที่ชมรม ขอข้อมูลค่าใช้จ่าย การใช้ชีวิต เที่ยวญี่ปุ่น</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>54427</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>65316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="423" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6694713" y="21488402"/>
+          <a:ext cx="4082144" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เที่ยว </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Japan Town</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>413657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>370783</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="424" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3309257" y="18712543"/>
+          <a:ext cx="674914" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ฝาก</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>620486</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>435429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>631371</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>392554</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="425" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276600" y="19626943"/>
+          <a:ext cx="674914" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ฝาก</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>424544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>631370</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>381670</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="426" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3004457" y="19169744"/>
+          <a:ext cx="947056" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>เอากลับมา</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>435430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>392556</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="427" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2982686" y="20519573"/>
+          <a:ext cx="947056" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>เอากลับมา</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>576943</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>424544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>587828</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>381670</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="428" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3233057" y="20062373"/>
+          <a:ext cx="674914" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ฝาก</a:t>
+          </a:r>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -19349,8 +21146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Time Table June  2018.xlsx
+++ b/Time Table June  2018.xlsx
@@ -9083,73 +9083,73 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>302623</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>585651</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>26126</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:rowOff>4354</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>600891</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>423454</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="246" name="สี่เหลี่ยมผืนผ้า 245"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15194280" y="16517983"/>
+          <a:ext cx="679268" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สวดมนต์</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>317862</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>445226</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="246" name="สี่เหลี่ยมผืนผ้า 245"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14247223" y="3150326"/>
-          <a:ext cx="679268" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>สวดมนต์</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>272143</xdr:colOff>
+      <xdr:rowOff>443049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>18506</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>287382</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>437606</xdr:rowOff>
+      <xdr:rowOff>415835</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9158,7 +9158,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14216743" y="3589020"/>
+          <a:off x="15142029" y="16956678"/>
           <a:ext cx="679268" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9881,16 +9881,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>576943</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>18506</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>340723</xdr:colOff>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>482237</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>437606</xdr:rowOff>
+      <xdr:rowOff>426720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9899,7 +9899,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13857514" y="3142706"/>
+          <a:off x="14663057" y="16521249"/>
           <a:ext cx="427809" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9995,16 +9995,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>576943</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>424543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>416923</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>340723</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>429986</xdr:rowOff>
+      <xdr:rowOff>397329</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10013,7 +10013,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13857514" y="3581400"/>
+          <a:off x="14597743" y="16938172"/>
           <a:ext cx="427809" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15321,16 +15321,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>25034</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>438691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>642256</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>9794</xdr:rowOff>
+      <xdr:colOff>130627</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>423450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15339,7 +15339,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6281057" y="16984977"/>
+          <a:off x="5769428" y="16506005"/>
           <a:ext cx="1665513" cy="431074"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18768,25 +18768,786 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>185056</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>620486</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>119745</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="399" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5497285" y="15631887"/>
+          <a:ext cx="1099458" cy="555172"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>เอาปลากระป๋องแห้งไปทานมื้อเทียงด้วย</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>544285</xdr:colOff>
+      <xdr:colOff>21773</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>435428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="400" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7990116" y="15773401"/>
+          <a:ext cx="3831770" cy="283027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ถ่ายภาพ ทำ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Report </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>รายงานผลสหกิจ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ถามพี่เลี้ยง อันนี้</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>32658</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>413659</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="401" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6640286" y="18756087"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>21773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>424545</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="402" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6662057" y="19213287"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>413658</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="403" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6662057" y="19648715"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>65315</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>413659</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="404" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6672943" y="20095030"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>10888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>413660</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="405" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6651171" y="20541345"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>555172</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>570412</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>419099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="408" name="สี่เหลี่ยมผืนผ้า 407"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11843658" y="16513628"/>
+          <a:ext cx="679268" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>598715</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>424543</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="409" name="สี่เหลี่ยมผืนผ้า 408"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12551229" y="18745200"/>
+          <a:ext cx="489857" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>620487</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>446315</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>440872</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="410" name="สี่เหลี่ยมผืนผ้า 409"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12573001" y="19659601"/>
+          <a:ext cx="489857" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>642259</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>43544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>468087</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>16330</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="411" name="สี่เหลี่ยมผืนผ้า 410"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12594773" y="20574001"/>
+          <a:ext cx="489857" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>631373</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>646612</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>440872</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="412" name="สี่เหลี่ยมผืนผ้า 411"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11255830" y="21444858"/>
+          <a:ext cx="679268" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>468085</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>32660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>370116</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>293916</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>413660</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="398" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8512628" y="16992603"/>
+        <xdr:cNvPr id="413" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7108371" y="16992603"/>
           <a:ext cx="2481945" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18818,7 +19579,34 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>relax</a:t>
+            <a:t>relax </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ไปชมรม</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เล่นอสุราต่อ</a:t>
           </a:r>
           <a:endParaRPr/>
         </a:p>
@@ -18836,786 +19624,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>293913</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>402772</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>65314</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>65316</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="399" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4942113" y="15577458"/>
-          <a:ext cx="1099458" cy="555172"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="th-TH">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>เอาปลากระป๋องแห้งไปทานมื้อเทียงด้วย</a:t>
-          </a:r>
-          <a:endParaRPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>21773</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152398</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>32661</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>435428</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="400" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7990116" y="15773401"/>
-          <a:ext cx="3831770" cy="283027"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="E46C0A"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="th-TH">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ถ่ายภาพ ทำ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Report </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>รายงานผลสหกิจ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ถามพี่เลี้ยง อันนี้</a:t>
-          </a:r>
-          <a:endParaRPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>10887</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>32658</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>413659</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="401" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6640286" y="18756087"/>
-          <a:ext cx="6008915" cy="402772"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="E46C0A"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="th-TH">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>สหกิจ</a:t>
-          </a:r>
-          <a:endParaRPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>21771</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>21773</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>54429</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>424545</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="402" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6662057" y="19213287"/>
-          <a:ext cx="6008915" cy="402772"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="E46C0A"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="th-TH">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>สหกิจ</a:t>
-          </a:r>
-          <a:endParaRPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>21771</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>54429</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>413658</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="403" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6662057" y="19648715"/>
-          <a:ext cx="6008915" cy="402772"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="E46C0A"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="th-TH">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>สหกิจ</a:t>
-          </a:r>
-          <a:endParaRPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>32657</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>10887</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>65315</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>413659</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="404" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6672943" y="20095030"/>
-          <a:ext cx="6008915" cy="402772"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="E46C0A"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="th-TH">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>สหกิจ</a:t>
-          </a:r>
-          <a:endParaRPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>10885</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>10888</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>43543</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>413660</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="405" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6651171" y="20541345"/>
-          <a:ext cx="6008915" cy="402772"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="E46C0A"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="th-TH">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>สหกิจ</a:t>
-          </a:r>
-          <a:endParaRPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>555172</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>570412</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>419099</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="408" name="สี่เหลี่ยมผืนผ้า 407"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11843658" y="16513628"/>
-          <a:ext cx="679268" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>576944</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>435428</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>592183</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>408214</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="409" name="สี่เหลี่ยมผืนผ้า 408"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11201401" y="18734314"/>
-          <a:ext cx="679268" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>598716</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>613955</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>429986</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="410" name="สี่เหลี่ยมผืนผ้า 409"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11223173" y="19648715"/>
-          <a:ext cx="679268" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>620488</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>32658</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>635727</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>5444</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="411" name="สี่เหลี่ยมผืนผ้า 410"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11244945" y="20563115"/>
-          <a:ext cx="679268" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>631373</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>21772</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>646612</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>440872</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="412" name="สี่เหลี่ยมผืนผ้า 411"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11255830" y="21444858"/>
-          <a:ext cx="679268" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>250371</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>21774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76202</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>402774</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="413" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6226628" y="16535403"/>
+      <xdr:colOff>642257</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>413661</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="414" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9448798" y="16992604"/>
           <a:ext cx="2481945" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19635,20 +19662,6 @@
         <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>relax </a:t>
-          </a:r>
           <a:r>
             <a:rPr lang="th-TH" sz="1100">
               <a:solidFill>
@@ -19656,27 +19669,11 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>ไปชมรม</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>เล่นอสุราต่อ</a:t>
-          </a:r>
-          <a:endParaRPr/>
+            <a:t>ที่ชมรม ขอข้อมูลค่าใช้จ่าย การใช้ชีวิต เที่ยวญี่ปุ่น</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr>
@@ -19690,28 +19687,85 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>576943</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>446313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>592183</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>419099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="415" name="สี่เหลี่ยมผืนผ้า 414"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11865429" y="16959942"/>
+          <a:ext cx="679268" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>43546</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>544287</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>424546</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="414" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8686799" y="16557175"/>
-          <a:ext cx="2481945" cy="381000"/>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>751117</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>391886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="416" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16764000" y="16143516"/>
+          <a:ext cx="1251860" cy="315684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19730,18 +19784,21 @@
         <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100">
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>ที่ชมรม ขอข้อมูลค่าใช้จ่าย การใช้ชีวิต เที่ยวญี่ปุ่น</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH">
-            <a:effectLst/>
-          </a:endParaRPr>
+            <a:t>erect sub</a:t>
+          </a:r>
+          <a:endParaRPr/>
         </a:p>
         <a:p>
           <a:pPr>
@@ -19755,84 +19812,27 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>576943</xdr:colOff>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>446313</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>592183</xdr:colOff>
+      <xdr:rowOff>174173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533403</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>419099</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="415" name="สี่เหลี่ยมผืนผ้า 414"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11865429" y="16959942"/>
-          <a:ext cx="679268" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76202</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>751117</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>391886</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="416" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16764000" y="16143516"/>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="417" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5921829" y="16687802"/>
           <a:ext cx="1251860" cy="315684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19865,142 +19865,6 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>erect sub</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>337457</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>65316</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>925288</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="417" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16938171" y="16578945"/>
-          <a:ext cx="1251860" cy="315684"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>erect sub</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>108859</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>892631</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>424543</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="418" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16905514" y="17068802"/>
-          <a:ext cx="1251860" cy="315684"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>erect dom</a:t>
           </a:r>
           <a:endParaRPr/>
         </a:p>
@@ -20849,6 +20713,1510 @@
             <a:t>ฝาก</a:t>
           </a:r>
           <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>163288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>664030</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="397" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16676913" y="17123231"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>erect sub</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>239487</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>827318</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>424542</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="406" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16840201" y="16622487"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>erect dom</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>109945</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>281939</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>87084</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="429" name="สี่เหลี่ยมผืนผ้า 428"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14249399" y="2341516"/>
+          <a:ext cx="641169" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>16327</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>26126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>649876</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>445226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="430" name="สี่เหลี่ยมผืนผ้า 429"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5328556" y="14308183"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>37012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>51163</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9797</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="431" name="สี่เหลี่ยมผืนผ้า 430"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5393871" y="14765383"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>92528</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>62049</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>434340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="432" name="สี่เหลี่ยมผืนผ้า 431"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5404757" y="15189926"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>179614</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>26126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>149134</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>445226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="433" name="สี่เหลี่ยมผืนผ้า 432"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4827814" y="15647126"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>54427</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>23948</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="434" name="สี่เหลี่ยมผืนผ้า 433"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5366656" y="16110857"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>587827</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>557347</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>419099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="435" name="สี่เหลี่ยมผืนผ้า 434"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7892141" y="16513628"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>359225</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>413657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>328745</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>386443</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="436" name="สี่เหลี่ยมผืนผ้า 435"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6335482" y="16927286"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>130626</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>402771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>100147</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>375557</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="437" name="สี่เหลี่ยมผืนผ้า 436"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5442855" y="18701657"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>119740</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>391885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>89261</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>364671</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="438" name="สี่เหลี่ยมผืนผ้า 437"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5431969" y="19137085"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>87083</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>21770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>56604</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>440870</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="439" name="สี่เหลี่ยมผืนผ้า 438"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5399312" y="19659599"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>119741</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>21770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>89262</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>440870</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="440" name="สี่เหลี่ยมผืนผ้า 439"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5431970" y="20105913"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>141512</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>435427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>111033</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>408213</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="441" name="สี่เหลี่ยมผืนผ้า 440"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5453741" y="20519570"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>119741</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>424541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>89262</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>397327</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="442" name="สี่เหลี่ยมผืนผ้า 441"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5431970" y="20954998"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>119741</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>435427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>89262</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>408212</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="443" name="สี่เหลี่ยมผืนผ้า 442"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5431970" y="21412198"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>544285</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>10889</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>370116</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>391889</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="444" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8512628" y="16524518"/>
+          <a:ext cx="2481945" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>relax </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ไปชมรม</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เล่นอสุราต่อ</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>261260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76203</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>130630</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="407" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10112829" y="17221203"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>pone</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>370113</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>239485</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>413660</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="446" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12322627" y="16230600"/>
+          <a:ext cx="1197429" cy="696689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ที่ชมรม ขอข้อมูลค่าใช้จ่าย การใช้ชีวิต เที่ยวญี่ปุ่น</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>186146</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>439782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>412567</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="447" name="สี่เหลี่ยมผืนผ้า 446"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14130746" y="2671353"/>
+          <a:ext cx="641168" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>338546</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>145867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>315685</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>118653</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="448" name="สี่เหลี่ยมผืนผ้า 447"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14283146" y="2823753"/>
+          <a:ext cx="641168" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>544282</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>513802</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>440871</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="449" name="สี่เหลี่ยมผืนผ้า 448"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13824853" y="16535400"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>642253</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>611773</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="450" name="สี่เหลี่ยมผืนผ้า 449"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13922824" y="17025257"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>283030</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>381001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>298270</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>353787</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="398" name="สี่เหลี่ยมผืนผ้า 397"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11571516" y="20911458"/>
+          <a:ext cx="679268" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -21146,8 +22514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB38" sqref="AB38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Time Table June  2018.xlsx
+++ b/Time Table June  2018.xlsx
@@ -9938,16 +9938,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>234043</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>429986</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>435428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>631372</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>429986</xdr:rowOff>
+      <xdr:rowOff>408214</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9956,7 +9956,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13514614" y="3581400"/>
+          <a:off x="12382500" y="16949057"/>
           <a:ext cx="397329" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19690,13 +19690,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>576943</xdr:colOff>
+      <xdr:colOff>446314</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>446313</xdr:rowOff>
+      <xdr:rowOff>438693</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>592183</xdr:colOff>
+      <xdr:colOff>461554</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>419099</xdr:rowOff>
     </xdr:to>
@@ -19707,8 +19707,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11865429" y="16959942"/>
-          <a:ext cx="679268" cy="419100"/>
+          <a:off x="11734800" y="16952322"/>
+          <a:ext cx="679268" cy="426720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22110,16 +22110,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>642253</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>206821</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>65314</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>611773</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -22128,12 +22128,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13922824" y="17025257"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+          <a:off x="12823364" y="16959943"/>
+          <a:ext cx="1284521" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -22160,6 +22163,23 @@
             <a:rPr lang="th-TH" sz="1000"/>
             <a:t>เดินทาง</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>**STRICT**</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>หกโมง</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -22217,6 +22237,278 @@
             <a:rPr lang="th-TH" sz="1000"/>
             <a:t>ออกกำลัง</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>315687</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>43545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>239490</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>359229</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="418" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16252373" y="19235059"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>erect dom</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>141515</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>391888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>729346</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>261258</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="445" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16742229" y="20476031"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>erect sub</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>337458</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>925289</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>326571</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="451" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16938172" y="20987658"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>erect dom</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>97973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>892631</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>413657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="452" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16905514" y="21521059"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>erect sub</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -22515,7 +22807,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB38" sqref="AB38"/>
+      <selection activeCell="AB44" sqref="AB44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Time Table June  2018.xlsx
+++ b/Time Table June  2018.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -22188,15 +22189,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>283030</xdr:colOff>
+      <xdr:colOff>65316</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>381001</xdr:rowOff>
+      <xdr:rowOff>424544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>298270</xdr:colOff>
+      <xdr:colOff>80556</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>353787</xdr:rowOff>
+      <xdr:rowOff>397330</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -22205,7 +22206,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11571516" y="20911458"/>
+          <a:off x="11353802" y="20955001"/>
           <a:ext cx="679268" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22499,6 +22500,205 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>erect sub</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>21772</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>239484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>359228</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>107762</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="453" name="สี่เหลี่ยมผืนผ้า 452"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7990115" y="21216255"/>
+          <a:ext cx="1665513" cy="314593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ใส่ข้อมูล</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> Law of existence</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เอาจริงละ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>283029</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>250370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>620485</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>118648</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="454" name="สี่เหลี่ยมผืนผ้า 453"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6259286" y="21227141"/>
+          <a:ext cx="1665513" cy="314593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เอาสายชาร์จกลับมา</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>642257</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>370118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>566060</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>239488</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="455" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7946571" y="20900575"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>pone</a:t>
           </a:r>
           <a:endParaRPr/>
         </a:p>
@@ -22807,7 +23007,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB44" sqref="AB44"/>
+      <selection activeCell="R50" sqref="R50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Time Table June  2018.xlsx
+++ b/Time Table June  2018.xlsx
@@ -11,7 +11,6 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -19473,16 +19472,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>631373</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304802</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>21772</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>646612</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>440872</xdr:rowOff>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>320041</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>5444</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19491,7 +19490,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11255830" y="21444858"/>
+          <a:off x="12257316" y="21455744"/>
           <a:ext cx="679268" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20261,16 +20260,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>54427</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>370113</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>65316</xdr:rowOff>
+      <xdr:rowOff>43544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:colOff>359228</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>424544</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20279,8 +20278,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6694713" y="21488402"/>
-          <a:ext cx="4082144" cy="381000"/>
+          <a:off x="7674427" y="21466630"/>
+          <a:ext cx="3309258" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20306,7 +20305,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>เที่ยว </a:t>
+            <a:t>เที่ยว</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
@@ -20315,7 +20314,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>Japan Town</a:t>
+            <a:t> MBK</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH">
             <a:effectLst/>
@@ -21655,16 +21654,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>119741</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>435427</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>89262</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>326569</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>408212</xdr:rowOff>
+      <xdr:rowOff>101235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>296090</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>81641</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21673,8 +21672,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5431970" y="21412198"/>
-          <a:ext cx="633549" cy="419100"/>
+          <a:off x="6966855" y="21524321"/>
+          <a:ext cx="633549" cy="426720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22701,6 +22700,71 @@
             <a:t>pone</a:t>
           </a:r>
           <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>359228</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>293914</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>435429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="456" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10319657" y="21477515"/>
+          <a:ext cx="1926771" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ไปมหาลัย</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr>
@@ -23007,7 +23071,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R50" sqref="R50"/>
+      <selection activeCell="U51" sqref="U51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Time Table June  2018.xlsx
+++ b/Time Table June  2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="600" windowWidth="15036" windowHeight="6036"/>
+    <workbookView xWindow="420" yWindow="600" windowWidth="11580" windowHeight="5088"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20196,15 +20196,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>174171</xdr:colOff>
+      <xdr:colOff>653144</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>391889</xdr:rowOff>
+      <xdr:rowOff>413661</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>478974</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>326575</xdr:rowOff>
+      <xdr:rowOff>348347</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20213,7 +20213,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8806542" y="20922346"/>
+          <a:off x="9285515" y="20944118"/>
           <a:ext cx="2481945" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22380,16 +22380,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>337458</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>10887</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>925289</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>326571</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>87087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>293917</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>402771</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -22398,7 +22398,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16938172" y="20987658"/>
+          <a:off x="18288000" y="21510173"/>
           <a:ext cx="1251860" cy="315684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22773,6 +22773,74 @@
             </a:lnSpc>
           </a:pPr>
           <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>130629</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>97969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>468085</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>412562</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="457" name="สี่เหลี่ยมผืนผ้า 456"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14739258" y="21521055"/>
+          <a:ext cx="1665513" cy="314593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>วางแผนการเงิน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ใส่ปฏิทินอันหน้า</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -23070,8 +23138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U51" sqref="U51"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA51" sqref="AA51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
